--- a/src/pause-web/src/main/resources/Verity.xlsx
+++ b/src/pause-web/src/main/resources/Verity.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pause\Relatorios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\regpontov2\src\pause-web\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F29"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,7 +631,7 @@
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -680,19 +680,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/src/pause-web/src/main/resources/Verity.xlsx
+++ b/src/pause-web/src/main/resources/Verity.xlsx
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>4</v>
